--- a/examples/project_comparison.xlsx
+++ b/examples/project_comparison.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:CW2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,8 +445,106 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="23" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="37" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="53" customWidth="1" min="8" max="8"/>
+    <col width="66" customWidth="1" min="9" max="9"/>
+    <col width="66" customWidth="1" min="10" max="10"/>
+    <col width="26" customWidth="1" min="11" max="11"/>
+    <col width="39" customWidth="1" min="12" max="12"/>
+    <col width="39" customWidth="1" min="13" max="13"/>
+    <col width="51" customWidth="1" min="14" max="14"/>
+    <col width="64" customWidth="1" min="15" max="15"/>
+    <col width="64" customWidth="1" min="16" max="16"/>
+    <col width="30" customWidth="1" min="17" max="17"/>
+    <col width="26" customWidth="1" min="18" max="18"/>
+    <col width="39" customWidth="1" min="19" max="19"/>
+    <col width="39" customWidth="1" min="20" max="20"/>
+    <col width="74" customWidth="1" min="21" max="21"/>
+    <col width="30" customWidth="1" min="22" max="22"/>
+    <col width="43" customWidth="1" min="23" max="23"/>
+    <col width="43" customWidth="1" min="24" max="24"/>
+    <col width="26" customWidth="1" min="25" max="25"/>
+    <col width="51" customWidth="1" min="26" max="26"/>
+    <col width="47" customWidth="1" min="27" max="27"/>
+    <col width="60" customWidth="1" min="28" max="28"/>
+    <col width="60" customWidth="1" min="29" max="29"/>
+    <col width="43" customWidth="1" min="30" max="30"/>
+    <col width="56" customWidth="1" min="31" max="31"/>
+    <col width="56" customWidth="1" min="32" max="32"/>
+    <col width="39" customWidth="1" min="33" max="33"/>
+    <col width="37" customWidth="1" min="34" max="34"/>
+    <col width="39" customWidth="1" min="35" max="35"/>
+    <col width="38" customWidth="1" min="36" max="36"/>
+    <col width="27" customWidth="1" min="37" max="37"/>
+    <col width="40" customWidth="1" min="38" max="38"/>
+    <col width="40" customWidth="1" min="39" max="39"/>
+    <col width="23" customWidth="1" min="40" max="40"/>
+    <col width="36" customWidth="1" min="41" max="41"/>
+    <col width="36" customWidth="1" min="42" max="42"/>
+    <col width="19" customWidth="1" min="43" max="43"/>
+    <col width="32" customWidth="1" min="44" max="44"/>
+    <col width="32" customWidth="1" min="45" max="45"/>
+    <col width="24" customWidth="1" min="46" max="46"/>
+    <col width="26" customWidth="1" min="47" max="47"/>
+    <col width="39" customWidth="1" min="48" max="48"/>
+    <col width="39" customWidth="1" min="49" max="49"/>
+    <col width="16" customWidth="1" min="50" max="50"/>
+    <col width="29" customWidth="1" min="51" max="51"/>
+    <col width="29" customWidth="1" min="52" max="52"/>
+    <col width="24" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="54" max="54"/>
+    <col width="38" customWidth="1" min="55" max="55"/>
+    <col width="38" customWidth="1" min="56" max="56"/>
+    <col width="18" customWidth="1" min="57" max="57"/>
+    <col width="31" customWidth="1" min="58" max="58"/>
+    <col width="31" customWidth="1" min="59" max="59"/>
+    <col width="26" customWidth="1" min="60" max="60"/>
+    <col width="32" customWidth="1" min="61" max="61"/>
+    <col width="45" customWidth="1" min="62" max="62"/>
+    <col width="45" customWidth="1" min="63" max="63"/>
+    <col width="28" customWidth="1" min="64" max="64"/>
+    <col width="41" customWidth="1" min="65" max="65"/>
+    <col width="41" customWidth="1" min="66" max="66"/>
+    <col width="38" customWidth="1" min="67" max="67"/>
+    <col width="51" customWidth="1" min="68" max="68"/>
+    <col width="38" customWidth="1" min="69" max="69"/>
+    <col width="51" customWidth="1" min="70" max="70"/>
+    <col width="51" customWidth="1" min="71" max="71"/>
+    <col width="26" customWidth="1" min="72" max="72"/>
+    <col width="55" customWidth="1" min="73" max="73"/>
+    <col width="51" customWidth="1" min="74" max="74"/>
+    <col width="57" customWidth="1" min="75" max="75"/>
+    <col width="57" customWidth="1" min="76" max="76"/>
+    <col width="57" customWidth="1" min="77" max="77"/>
+    <col width="57" customWidth="1" min="78" max="78"/>
+    <col width="57" customWidth="1" min="79" max="79"/>
+    <col width="57" customWidth="1" min="80" max="80"/>
+    <col width="57" customWidth="1" min="81" max="81"/>
+    <col width="35" customWidth="1" min="82" max="82"/>
+    <col width="48" customWidth="1" min="83" max="83"/>
+    <col width="48" customWidth="1" min="84" max="84"/>
+    <col width="47" customWidth="1" min="85" max="85"/>
+    <col width="35" customWidth="1" min="86" max="86"/>
+    <col width="51" customWidth="1" min="87" max="87"/>
+    <col width="31" customWidth="1" min="88" max="88"/>
+    <col width="36" customWidth="1" min="89" max="89"/>
+    <col width="62" customWidth="1" min="90" max="90"/>
+    <col width="62" customWidth="1" min="91" max="91"/>
+    <col width="49" customWidth="1" min="92" max="92"/>
+    <col width="62" customWidth="1" min="93" max="93"/>
+    <col width="62" customWidth="1" min="94" max="94"/>
+    <col width="28" customWidth="1" min="95" max="95"/>
+    <col width="41" customWidth="1" min="96" max="96"/>
+    <col width="41" customWidth="1" min="97" max="97"/>
+    <col width="32" customWidth="1" min="98" max="98"/>
+    <col width="45" customWidth="1" min="99" max="99"/>
+    <col width="45" customWidth="1" min="100" max="100"/>
+    <col width="28" customWidth="1" min="101" max="101"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,12 +555,502 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>base_slab_area [m²]</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>base_slab_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>base_slab_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area [m²]</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area_to_gross_floor_area_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area_to_gross_floor_area_ratio_above_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>construction_area_to_gross_floor_area_ratio_below_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume [m³]</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume_above_ground [m³]</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume_below_ground [m³]</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume_to_gross_volume_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume_to_gross_volume_ratio_above_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>construction_volume_to_gross_volume_ratio_below_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>coverings_interior_area [m²]</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_area [m²]</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_area_by_room_type_by_globalid_2lk8ATQRL3YhM35IFLYXiz [m²]</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_count [count]</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_count_above_ground [count]</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>doors_exterior_count_below_ground [count]</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>doors_interior_area [m²]</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>doors_interior_area_by_room_type_by_globalid [m²]</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_floor_area_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_floor_area_ratio_above_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_floor_area_ratio_below_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_volume_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_volume_ratio_above_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>facade_area_to_gross_volume_ratio_below_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>facade_net_area_by_direction_-90 [m²]</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>facade_net_area_by_direction_0 [m²]</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>facade_net_area_by_direction_180 [m²]</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>facade_net_area_by_direction_90 [m²]</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>facade_vertical_area [m²]</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>facade_vertical_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>facade_vertical_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
           <t>gross_floor_area [m²]</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>gross_floor_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>gross_floor_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>gross_volume [m³]</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>gross_volume_above_ground [m³]</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>gross_volume_below_ground [m³]</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>gv_to_gf_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>interior_walls_area [m²]</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>interior_walls_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>interior_walls_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>roof_area [m²]</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>roof_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>roof_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>slab_balcony_area [m²]</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>slab_interior_area [m²]</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>slab_interior_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>slab_interior_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>soffit_area [m²]</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>soffit_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>soffit_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>space_exterior_area [m²]</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_floor_area [m²]</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_floor_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_floor_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_volume [m³]</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_volume_above_ground [m³]</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>space_interior_volume_below_ground [m³]</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>storeys_count_excluding_roof [count]</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>storeys_count_excluding_roof_above_ground [count]</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>storeys_count_including_roof [count]</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>storeys_count_including_roof_above_ground [count]</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>storeys_count_including_roof_below_ground [count]</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>total_envelope_area [m²]</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>total_envelope_area_to_gross_floor_area_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>total_envelope_area_to_gross_volume_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_GSA [m²]</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_LUF [m²]</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_RRG [m²]</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_SGR [m²]</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_TRH [m²]</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_WCD [m²]</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>wall_surface_net_area_by_room_type_by_longname_WCH [m²]</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>walls_exterior_net_side_area [m²]</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>walls_exterior_net_side_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>walls_exterior_net_side_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>walls_interior_loadbearing_net_side_area [m²]</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>walls_interior_net_side_area [m²]</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>walls_interior_non_loadbearing_net_side_area [m²]</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>window_to_floor_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_by_direction_180 [m²]</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_by_room_by_globalid_021YoEi1HD9eSoSLT0LMfy [m²]</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_by_room_by_globalid_2ky6TqzMD7gwJbHxE3Kcxy [m²]</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_to_total_facade_area_ratio [ratio]</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_to_total_facade_area_ratio_above_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>windows_area_to_total_facade_area_ratio_below_ground [ratio]</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_area [m²]</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_area_above_ground [m²]</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_area_below_ground [m²]</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_count [count]</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_count_above_ground [count]</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>windows_exterior_count_below_ground [count]</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>windows_interior_area [m²]</t>
         </is>
       </c>
     </row>
@@ -473,10 +1061,302 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>38.32</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>27.41</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>197.75</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>105.54</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>92.20999999999999</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>755.34</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2" t="inlineStr"/>
+      <c r="AA2" s="3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>85.8115</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>94.754188</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>90.70567000001471</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>92.47996601016339</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>363.75</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>249.96</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>113.79</v>
+      </c>
+      <c r="AN2" s="3" t="n">
         <v>194.41</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="AO2" s="3" t="n">
+        <v>128.29</v>
+      </c>
+      <c r="AP2" s="3" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="AQ2" s="3" t="n">
         <v>710.21</v>
+      </c>
+      <c r="AR2" s="3" t="n">
+        <v>452.34</v>
+      </c>
+      <c r="AS2" s="3" t="n">
+        <v>257.87</v>
+      </c>
+      <c r="AT2" s="3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU2" s="3" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="AV2" s="3" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="AW2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="3" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="AY2" s="3" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="AZ2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="3" t="n">
+        <v>32.85</v>
+      </c>
+      <c r="BB2" s="3" t="n">
+        <v>137.55</v>
+      </c>
+      <c r="BC2" s="3" t="n">
+        <v>137.55</v>
+      </c>
+      <c r="BD2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="3" t="n">
+        <v>106.64</v>
+      </c>
+      <c r="BF2" s="3" t="n">
+        <v>40.52</v>
+      </c>
+      <c r="BG2" s="3" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="BH2" s="3" t="n">
+        <v>321.67</v>
+      </c>
+      <c r="BI2" s="3" t="n">
+        <v>156.09</v>
+      </c>
+      <c r="BJ2" s="3" t="n">
+        <v>100.88</v>
+      </c>
+      <c r="BK2" s="3" t="n">
+        <v>55.22</v>
+      </c>
+      <c r="BL2" s="3" t="n">
+        <v>512.46</v>
+      </c>
+      <c r="BM2" s="3" t="n">
+        <v>346.8</v>
+      </c>
+      <c r="BN2" s="3" t="n">
+        <v>165.66</v>
+      </c>
+      <c r="BO2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP2" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BQ2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BR2" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" s="3" t="n">
+        <v>552.39</v>
+      </c>
+      <c r="BU2" s="3" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BV2" s="3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BW2" s="3" t="n">
+        <v>128.1469</v>
+      </c>
+      <c r="BX2" s="3" t="n">
+        <v>32.205</v>
+      </c>
+      <c r="BY2" s="3" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="BZ2" s="3" t="n">
+        <v>89.19</v>
+      </c>
+      <c r="CA2" s="3" t="n">
+        <v>100.0458</v>
+      </c>
+      <c r="CB2" s="3" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="CC2" s="3" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="CD2" s="3" t="n">
+        <v>292.41</v>
+      </c>
+      <c r="CE2" s="3" t="n">
+        <v>198.96</v>
+      </c>
+      <c r="CF2" s="3" t="n">
+        <v>93.45</v>
+      </c>
+      <c r="CG2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="3" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="CI2" s="3" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="CJ2" s="3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CK2" s="3" t="n">
+        <v>6.1102</v>
+      </c>
+      <c r="CL2" s="3" t="n">
+        <v>3.0551</v>
+      </c>
+      <c r="CM2" s="3" t="n">
+        <v>3.0551</v>
+      </c>
+      <c r="CN2" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CO2" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CP2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="3" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="CR2" s="3" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="CS2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CV2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
